--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692934.629157154</v>
+        <v>1785935.828569873</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5714920.06298711</v>
+        <v>6150681.016683511</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234.3277699012939</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -665,7 +667,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -722,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>133.2664810274458</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.724627601166</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682135</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>418.7069096796287</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>53.33388379267991</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,10 +1065,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>73.71535300152992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>202.9135669646828</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>246.052243209646</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>47.31231422130881</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>153.2006427344288</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>23.21215624113697</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>223.3440678940275</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>92.21956428897897</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>109.1426757626851</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>242.4121424516454</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>287.9420426233994</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>213.7984441674421</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>46.16917954999367</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>217.289124597663</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1859,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>134.7806822622918</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665254</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2239,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2248,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>31.28831241118613</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>74.27355480885194</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2485,10 +2487,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>140.2653052259352</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>35.47248331510065</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>129.7139627068452</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>165.6137642219406</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>179.0861311466717</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.8657325295508</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>60.94899222869595</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1858708607796</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>62.61079093391727</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225768</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>272.1494839753878</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>150.3847114964574</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>41.94061297377409</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4189,13 +4191,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>193.8659438253731</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.055244562854</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C2" t="n">
-        <v>946.912771746277</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D2" t="n">
-        <v>511.0029869207216</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4331,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.178548755904</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X2" t="n">
-        <v>2030.036085335214</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y2" t="n">
-        <v>1621.749961634868</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>790.1396618744722</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>790.1396618744722</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4531,7 +4533,7 @@
         <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.9340324416416</v>
+        <v>1415.517618276921</v>
       </c>
       <c r="C5" t="n">
-        <v>138.8319636654689</v>
+        <v>977.3751454603448</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>541.4653606347892</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>107.6906157930844</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4571,22 +4573,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>801.8819313892766</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1423.298891966343</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1004.156428545654</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>595.8703048453069</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1041.328054693136</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C7" t="n">
-        <v>868.7663431763605</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>702.8883503778832</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>533.1303466286204</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>356.4232925903766</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4729,13 +4731,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2264.94001130788</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1977.98450317831</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1705.958098764602</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1460.566344098014</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1233.146673412123</v>
+        <v>955.7523231022661</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>791.4099871095558</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>542.872367705873</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>511.0029869207216</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>518.3865980530361</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.1381447155</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1625.99568129481</v>
+        <v>2621.455559497705</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.709557594464</v>
+        <v>2213.169435797358</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4990,22 +4992,22 @@
         <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2510.819457729425</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1147.736370643972</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C11" t="n">
-        <v>709.5938978273957</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>483.9938292475699</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677765</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127231</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085826</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.464528249916</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X11" t="n">
-        <v>1982.322064829227</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y11" t="n">
-        <v>1574.03594112888</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677765</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>330.2377696303397</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.801965382963</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.801965382963</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1024.801965382963</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>1007.236984956563</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>834.6752734397877</v>
       </c>
       <c r="D13" t="n">
-        <v>461.3955772299715</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="E13" t="n">
-        <v>461.3955772299715</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2039.03032285232</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1752.07481472275</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1480.048410309042</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1234.656655642455</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1007.236984956563</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>785.1194205777982</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>346.9769477612215</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>346.9769477612215</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>346.9769477612215</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677765</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677765</v>
+        <v>1030.917486503693</v>
       </c>
       <c r="L14" t="n">
-        <v>750.690595409401</v>
+        <v>1030.917486503693</v>
       </c>
       <c r="M14" t="n">
-        <v>750.690595409401</v>
+        <v>2187.965321714245</v>
       </c>
       <c r="N14" t="n">
-        <v>1445.254791162025</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="O14" t="n">
-        <v>2139.818986914648</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>2806.319982838882</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772709</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183742</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763053</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1211.418991062706</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.248920375613</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.248920375613</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P15" t="n">
-        <v>1075.248920375613</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q15" t="n">
-        <v>1615.987859007689</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>796.7448559534066</v>
+        <v>1053.872519855546</v>
       </c>
       <c r="C16" t="n">
-        <v>796.7448559534066</v>
+        <v>881.3108083387712</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>715.4328155402939</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>545.6748117910311</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>368.9677577527873</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1461.374900024873</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="X16" t="n">
-        <v>1215.983145358286</v>
+        <v>1473.110809260425</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.5634746723938</v>
+        <v>1245.691138574533</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5509,34 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>2838.680732648598</v>
+        <v>496.4142387798983</v>
       </c>
       <c r="F19" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387798983</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636182</v>
+        <v>330.822963805726</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>4953.800644836978</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.757289365886</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F22" t="n">
         <v>496.4142387799021</v>
@@ -5917,43 +5919,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2506.656904206056</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W22" t="n">
-        <v>1673.387333437352</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.995578770765</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.575908084873</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5989,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.16863798718</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.634124109936</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>885.0724125931612</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D25" t="n">
-        <v>719.1944197946839</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E25" t="n">
-        <v>549.4364160454211</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>277.9938058077795</v>
       </c>
       <c r="G25" t="n">
         <v>242.1630145804051</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1994.290572595111</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.264168181403</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1476.872413514815</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1249.452742828923</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,10 +6548,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N30" t="n">
         <v>1765.500601749588</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>3752.579908427708</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>3752.579908427708</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>3752.579908427708</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>3752.579908427708</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>3752.579908427708</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4572.303074906906</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248063</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731288</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>4707.921198415434</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V34" t="n">
-        <v>4420.965690285864</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W34" t="n">
-        <v>4240.070608319529</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X34" t="n">
-        <v>3994.678853652942</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y34" t="n">
-        <v>3767.25918296705</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436392</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7156,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7205,19 +7207,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.727725908489</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917135</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932362</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439735</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057297</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7366,16 +7368,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1952.384174393663</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1680.357769979955</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1434.966015313368</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.546344627476</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1559.558048373797</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1559.558048373797</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1559.558048373797</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1174.52181518109</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>746.6543855902975</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>1396.102936374607</v>
+        <v>2992.672448660725</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U41" t="n">
-        <v>2327.030453028937</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>1964.413502962763</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>1559.558048373797</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>1559.558048373797</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1559.558048373797</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M42" t="n">
-        <v>750.6905954094008</v>
+        <v>479.432103632509</v>
       </c>
       <c r="N42" t="n">
-        <v>1445.254791162024</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O42" t="n">
-        <v>1445.254791162024</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.8616057763934</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>752.2998942596183</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>586.421901461141</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>416.6638977118783</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>239.9568436736345</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>74.36556869946216</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2426.906563138033</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="U43" t="n">
-        <v>2148.473562391138</v>
+        <v>2251.337518478127</v>
       </c>
       <c r="V43" t="n">
-        <v>1861.518054261568</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1589.49164984786</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1344.099895181272</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>1116.680224495381</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1174.93860455395</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>1174.93860455395</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D44" t="n">
-        <v>1174.93860455395</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E44" t="n">
-        <v>1174.93860455395</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F44" t="n">
-        <v>747.0711749631575</v>
+        <v>368.6685679808615</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677763</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M44" t="n">
-        <v>56.12639965677763</v>
+        <v>1754.284441102533</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219836</v>
+        <v>2880.01542453898</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3860.195091109286</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2502.600881895757</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2139.983931829584</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>1735.128477240617</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>1583.224728254296</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>1174.93860455395</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>1075.290341150174</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>902.7286296333992</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>736.8506368349219</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>567.0926330856591</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>390.3855790474154</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>224.794304073243</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2513.544640857574</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.665194436029</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2071.841008753834</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1494.528630555053</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1267.108959869161</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8055,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>20.13097499434639</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P3" t="n">
-        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8143,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8219,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8230,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,7 +8379,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645587</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>469.6822035600077</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,25 +8534,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932207</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904667</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>506.9623229615373</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097207</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>104.4225274019166</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>459.5978749662609</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M30" t="n">
         <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328636</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>389.5575801148034</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>276.880171690467</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>591.3680560917371</v>
       </c>
       <c r="N44" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>208.2066190832724</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>125.6469905667128</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.07653710780744</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>33.23652828778029</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>135.6467126714849</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>42.83163548871113</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>117.7661826744369</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>52.01701577190838</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>33.27974144947834</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>212.1323395461432</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>195.0325855607194</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.67467827192613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>128.46287890933</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>90.22000922289968</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.27974144948197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>48.25112653250812</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>194.019288722236</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>125.2343690875809</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>264.566327290025</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>96.56253959275514</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357786.1112589147</v>
+        <v>506924.8403707862</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357786.1112589146</v>
+        <v>506924.8403707862</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540563.8908933386</v>
+        <v>540563.8908933387</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>540563.8908933385</v>
+        <v>540563.8908933386</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>540563.8908933387</v>
+        <v>540563.8908933386</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>540563.8908933385</v>
+        <v>540563.8908933386</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357786.1112589146</v>
+        <v>506924.8403707863</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357786.1112589146</v>
+        <v>506924.8403707863</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150667</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
-        <v>270253.5357583609</v>
+        <v>382905.3900161256</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161256</v>
       </c>
       <c r="G2" t="n">
+        <v>408314.6277064481</v>
+      </c>
+      <c r="H2" t="n">
         <v>408314.627706448</v>
-      </c>
-      <c r="H2" t="n">
-        <v>408314.6277064479</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26352,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161256</v>
       </c>
       <c r="P2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045623</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.08170334076</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.3108416593</v>
       </c>
       <c r="F4" t="n">
-        <v>18323.41938979971</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="P4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13155.35046275596</v>
+        <v>-13155.35046275583</v>
       </c>
       <c r="C6" t="n">
         <v>210544.348121289</v>
       </c>
       <c r="D6" t="n">
-        <v>210544.3481212889</v>
+        <v>210544.348121289</v>
       </c>
       <c r="E6" t="n">
-        <v>199103.0560289539</v>
+        <v>135013.0501203896</v>
       </c>
       <c r="F6" t="n">
-        <v>209274.0526294101</v>
+        <v>285678.8036921375</v>
       </c>
       <c r="G6" t="n">
-        <v>144852.8334043436</v>
+        <v>273822.501177845</v>
       </c>
       <c r="H6" t="n">
-        <v>302912.3103504527</v>
+        <v>302912.3103504528</v>
       </c>
       <c r="I6" t="n">
         <v>302912.3103504528</v>
       </c>
       <c r="J6" t="n">
-        <v>128260.9616327466</v>
+        <v>128260.9616327467</v>
       </c>
       <c r="K6" t="n">
         <v>302912.3103504528</v>
@@ -26552,16 +26554,16 @@
         <v>302912.3103504528</v>
       </c>
       <c r="M6" t="n">
-        <v>294423.228647112</v>
+        <v>177161.2220147621</v>
       </c>
       <c r="N6" t="n">
         <v>302912.3103504528</v>
       </c>
       <c r="O6" t="n">
-        <v>209274.0526294101</v>
+        <v>285678.8036921376</v>
       </c>
       <c r="P6" t="n">
-        <v>209274.0526294101</v>
+        <v>285678.8036921376</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0647891018636</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.0647891018636</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.7088048787647</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>270.9367814358973</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.17580493063127</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.1718905122115</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.32966510043002</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>370.2548715022044</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>90.22000922290069</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>22.23190701435001</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.7088048787649</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>367.6387245651736</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>201.9333177378958</v>
       </c>
     </row>
     <row r="11">
@@ -34699,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>20.13097499434639</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P3" t="n">
-        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34939,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34950,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35097,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>469.6822035600077</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,25 +35254,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932207</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904667</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>506.9623229615373</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097207</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>673.2333292163985</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>104.4225274019166</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>459.5978749662609</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36287,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36355,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M30" t="n">
         <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328636</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>389.5575801148034</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097205</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>276.880171690467</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>591.3680560917371</v>
       </c>
       <c r="N44" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1785935.828569873</v>
+        <v>1785329.740940976</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797166</v>
+        <v>606553.2040797148</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6150681.016683511</v>
+        <v>6150681.016683512</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>321.0498653979684</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.2664810274458</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454842</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.97358346682135</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>53.33388379267991</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>114.8528499950176</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.9135669646828</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>66.5349450023692</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,7 +1144,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>47.31231422130881</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>23.21215624113697</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>175.0349193669826</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.21956428897897</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>65.54144271872181</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4121424516454</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1663,10 +1663,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>213.7984441674421</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>29.92029206558705</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>46.16917954999367</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>126.5517316786952</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>134.7806822622918</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665254</v>
+        <v>64.34965323462481</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>31.28831241118613</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>35.47248331510065</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>187.6803791150326</v>
       </c>
     </row>
     <row r="32">
@@ -3189,13 +3189,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3207,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>48.38806639660998</v>
       </c>
       <c r="U34" t="n">
-        <v>165.6137642219406</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>129.7139627068452</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>62.61079093391727</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1494839753878</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>63.02341241305043</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H46" t="n">
-        <v>41.94061297377409</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>832.0025222626568</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,19 +4333,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488303</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.341725488303</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.526674939741</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X2" t="n">
-        <v>2350.424615559456</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.812008461025</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1331.379389918832</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1331.379389918832</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1331.379389918832</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1331.379389918832</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4527,13 +4527,13 @@
         <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.45937714051</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1415.517618276921</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>977.3751454603448</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>541.4653606347892</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>107.6906157930844</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4603,16 +4603,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.817188761829</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7523231022661</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1906115854911</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>617.3126187870138</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>447.554615037751</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4731,13 +4731,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4758,19 +4758,19 @@
         <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056491</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>955.7523231022661</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.86986531245</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.727392495873</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703178</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4846,10 +4846,10 @@
         <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.455559497705</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2213.169435797358</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.8681021663376</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>794.3063906495626</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>628.4283978510853</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.686720885325</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2231.279152143079</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C11" t="n">
-        <v>1793.136679326502</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D11" t="n">
-        <v>1357.226894500947</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E11" t="n">
-        <v>923.452149659242</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F11" t="n">
-        <v>495.5847200684498</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G11" t="n">
-        <v>94.18688869171365</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>4511.702017087146</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U11" t="n">
-        <v>4252.479714404163</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V11" t="n">
-        <v>3889.86276433799</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W11" t="n">
-        <v>3485.007309749023</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X11" t="n">
-        <v>3065.864846328333</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y11" t="n">
-        <v>2657.578722627987</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,7 +5114,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5135,7 +5135,7 @@
         <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1007.236984956563</v>
+        <v>907.4612566671666</v>
       </c>
       <c r="C13" t="n">
-        <v>834.6752734397877</v>
+        <v>734.8995451503915</v>
       </c>
       <c r="D13" t="n">
-        <v>668.7972806413104</v>
+        <v>569.0215523519142</v>
       </c>
       <c r="E13" t="n">
-        <v>499.0392768920476</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="F13" t="n">
-        <v>322.3322228538038</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5232,19 +5232,19 @@
         <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2039.03032285232</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1752.07481472275</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1480.048410309042</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1234.656655642455</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1007.236984956563</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2231.279152143079</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1793.136679326502</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1357.226894500947</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
         <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1030.917486503693</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1030.917486503693</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2187.965321714245</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>3313.696305150691</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4468.437738815721</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>4252.479714404163</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>3889.86276433799</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>3485.007309749023</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.864846328333</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.578722627987</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.571709137155</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1053.872519855546</v>
+        <v>834.6752734397877</v>
       </c>
       <c r="C16" t="n">
-        <v>881.3108083387712</v>
+        <v>834.6752734397877</v>
       </c>
       <c r="D16" t="n">
-        <v>715.4328155402939</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="E16" t="n">
-        <v>545.6748117910311</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F16" t="n">
-        <v>368.9677577527873</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G16" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2582.599677222971</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2336.720230801427</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2058.287230054532</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1771.331721924962</v>
       </c>
       <c r="W16" t="n">
-        <v>1718.502563927013</v>
+        <v>1499.305317511254</v>
       </c>
       <c r="X16" t="n">
-        <v>1473.110809260425</v>
+        <v>1253.913562844667</v>
       </c>
       <c r="Y16" t="n">
-        <v>1245.691138574533</v>
+        <v>1026.493892158775</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387798983</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387798983</v>
+        <v>332.8517649768962</v>
       </c>
       <c r="G19" t="n">
-        <v>330.822963805726</v>
+        <v>167.2604900027239</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="20">
@@ -5737,16 +5737,16 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5919,43 +5919,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
         <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878955</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2506.656904206056</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2228.223903459162</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1941.268395329592</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1669.241990915884</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5995,13 +5995,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>624.4588635952861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>454.7008598460233</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>277.9938058077795</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6417,19 +6417,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="32">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.9010479080736</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C34" t="n">
-        <v>750.3393363912985</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>584.4613435928212</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6888,22 +6888,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2510.802246727525</v>
       </c>
       <c r="U34" t="n">
-        <v>2146.513004522818</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V34" t="n">
-        <v>1859.557496393248</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.53109197954</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X34" t="n">
-        <v>1342.139337312952</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y34" t="n">
-        <v>1114.719666627061</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7122,16 +7122,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,31 +7417,31 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2992.672448660725</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231031</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
         <v>4541.609868960946</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>479.432103632509</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2529.770519225022</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2251.337518478127</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>2109.48470841591</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002201</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238914</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.310742413359</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716538</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>368.6685679808615</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885365</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1168.830065571713</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1754.284441102533</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2880.01542453898</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3860.195091109286</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4688.504965942682</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1075.290341150174</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>902.7286296333992</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>736.8506368349219</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E46" t="n">
-        <v>567.0926330856591</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F46" t="n">
-        <v>390.3855790474154</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G46" t="n">
-        <v>224.794304073243</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7845,13 +7845,13 @@
         <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1739.920385221641</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.528630555053</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1267.108959869161</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8145,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645587</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>979.9409695458944</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8929,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>506.9623229615373</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7971848772036</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>459.5978749662609</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1050.672356668189</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>389.5575801148034</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>591.3680560917371</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>125.6469905667128</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>124.3589898130754</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>33.23652828778029</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>42.83163548871113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>329.0704884999247</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.7661826744369</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>31.09722333628814</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>33.27974144947834</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>74.15349933190441</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.146865729420728</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>212.1323395461432</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128.46287890933</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>37.46509486400021</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>195.0325855607193</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0349065174851</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>194.019288722236</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>125.2343690875809</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>193.6066672431028</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
-        <v>96.56253959275514</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506924.8403707862</v>
+        <v>506924.8403707864</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506924.8403707862</v>
+        <v>506924.8403707865</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>540563.8908933386</v>
+        <v>540563.8908933387</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506924.8403707863</v>
+        <v>506924.8403707864</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506924.8403707863</v>
+        <v>506924.8403707864</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150667</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
-        <v>382905.3900161256</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="F2" t="n">
-        <v>382905.3900161256</v>
+        <v>382905.3900161258</v>
       </c>
       <c r="G2" t="n">
         <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26352,7 +26352,7 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>382905.3900161256</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="P2" t="n">
         <v>382905.3900161257</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25961.3108416593</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
         <v>25961.31084165931</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13155.35046275583</v>
+        <v>-13155.35046275597</v>
       </c>
       <c r="C6" t="n">
         <v>210544.348121289</v>
@@ -26530,40 +26530,40 @@
         <v>210544.348121289</v>
       </c>
       <c r="E6" t="n">
-        <v>135013.0501203896</v>
+        <v>134907.860498135</v>
       </c>
       <c r="F6" t="n">
-        <v>285678.8036921375</v>
+        <v>285573.6140698831</v>
       </c>
       <c r="G6" t="n">
-        <v>273822.501177845</v>
+        <v>273799.2768384625</v>
       </c>
       <c r="H6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110703</v>
       </c>
       <c r="I6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110701</v>
       </c>
       <c r="J6" t="n">
-        <v>128260.9616327467</v>
+        <v>128237.737293364</v>
       </c>
       <c r="K6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110702</v>
       </c>
       <c r="L6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110701</v>
       </c>
       <c r="M6" t="n">
-        <v>177161.2220147621</v>
+        <v>177137.9976753794</v>
       </c>
       <c r="N6" t="n">
-        <v>302912.3103504528</v>
+        <v>302889.0860110701</v>
       </c>
       <c r="O6" t="n">
-        <v>285678.8036921376</v>
+        <v>285573.614069883</v>
       </c>
       <c r="P6" t="n">
-        <v>285678.8036921376</v>
+        <v>285573.614069883</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.7111826904425</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>270.9367814358973</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.7661826744375</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.1718905122115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>370.2548715022044</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.23190701435001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>367.2261030860417</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>367.6387245651736</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.9333177378958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35099,22 +35099,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>979.9409695458944</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35649,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>506.9623229615373</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7971848772036</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>459.5978749662609</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645627</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36299,7 +36299,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1050.672356668189</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>559.8357612908239</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>389.5575801148034</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>591.3680560917371</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
